--- a/data/4/20230604-a1r-nc-session4-e_transcript.xlsx
+++ b/data/4/20230604-a1r-nc-session4-e_transcript.xlsx
@@ -1,462 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:03 /06:03 excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC6E23-B4FD-0B41-91B7-4705CAEC2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"9:53"</t>
-  </si>
-  <si>
-    <t>For me, I'm all for closing loopholes that sounds like a great idea to me.</t>
-  </si>
-  <si>
-    <t>"10:00"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm for closing loopholes to, I honestly don't. Yeah, I honestly don't think that individual limits for their contributions right now or an issue. I know I make.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> About what average American does and I wouldn't be able to hit those limits as they are right now. So raising them doesn't really make any sense. I think it's a super Pacs that need to get a look taken it.</t>
-  </si>
-  <si>
-    <t>"10:28"</t>
-  </si>
-  <si>
-    <t>Oh yeah, I'm all for closing loopholes but I think I'm the other issue. I'm for anything that increases the potential for more individual candidates to be in and decreases the contributions from corporate or or organized type of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foundations and corporations and also from National political parties. Even into the individuals because they can then hijacked that process. I think we need more candidates basically in there possibly more parties, but not more money.</t>
-  </si>
-  <si>
-    <t>"11:27"</t>
-  </si>
-  <si>
-    <t>Yes, I'm all for closing. The loop comes in it. We have no business reform in our politics.</t>
-  </si>
-  <si>
-    <t>"11:41"</t>
-  </si>
-  <si>
-    <t>I agree and closing the loopholes we should have government officials, voted on not purchased.</t>
-  </si>
-  <si>
-    <t>"12:01"</t>
-  </si>
-  <si>
-    <t>I agree with a closing loopholes and then you know, in regards to financing I have a I'm not too sure. I trust the government dispensing that money but then again even though they're Greg said regulations or whatever. Come up to people always have a back door way. It's just like the tax code you can you have all going to end rounds and if ands or buts that taken lawyer out of the situation. So I'm not sure about the, I'd like to know more about</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Financing. And if we need to raise those limits,</t>
-  </si>
-  <si>
-    <t>"12:41"</t>
-  </si>
-  <si>
-    <t>Oh, I agree about fixing that loopholes but I don't agree with the racing. The money that you can contribute a lot of politicians, just get in it for the money and not to help American people.</t>
-  </si>
-  <si>
-    <t>"15:21"</t>
-  </si>
-  <si>
-    <t>All I can say, is that there are better ways to spend public funds.</t>
-  </si>
-  <si>
-    <t>"15:28"</t>
-  </si>
-  <si>
-    <t>I don't want to use public funds for elections, either, agree with that elections. I mean, what are we doing? If we do that right in my opinion, you're just</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Handing out the money and it's going to just going to come down to the person that uses the best for marketing after they get it. So and see what the difference is you know, you're going to get so much money that already shows that you have so much support and then it just comes down to. If you can give more you're going to lose more, it becomes a different thing other than voting for someone who can do something for you.</t>
-  </si>
-  <si>
-    <t>"16:10"</t>
-  </si>
-  <si>
-    <t>Yeah, I would agree that public funds. It seems a little incestual where we would the government would pay money to become part of the government. Just somehow seems ethically wrong. I want to point out. I used to work for Mutual company. Mutual fund company. We had pay-to-play rules. So, we weren't allowed even allowed to give to any government election, unless it was approved by your employer. So that's rule of the Securities, I believe finra. So, I don't know if there's more rules, like,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> like that out there or if other people have to abide by that, or if that's just an industry rule.</t>
-  </si>
-  <si>
-    <t>"16:49"</t>
-  </si>
-  <si>
-    <t>I just wanted to point out that we do already have public funds that financed elections, so this is not like something new, this would be increasing that, which I'm not sure, you know, if we're for or against but we already do this. I just wanted to share that with everyone.</t>
-  </si>
-  <si>
-    <t>"17:09"</t>
-  </si>
-  <si>
-    <t>Yeah, I don't know if we should be using public funds for that if it they already do. I mean, it's something that is already in place, but it almost feels like they're trying to make elections more of like, a money thing. Like, these people already when they get into those positions, they have incredible salaries as is. So, it just seems like increasing any type of money that they get is just increasing the probability of getting someone that's just in it for the money and not in it for the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American people like the position is supposed to be.</t>
-  </si>
-  <si>
-    <t>"17:43"</t>
-  </si>
-  <si>
-    <t>I agree. I don't really regardless of what we're spending right now on funding public funds for election. So I would be a close to that or any kind of democracy, vouchers.</t>
-  </si>
-  <si>
-    <t>"17:59"</t>
-  </si>
-  <si>
-    <t>Yes, I agree. I don't think the public funds should be used to find financially election.</t>
-  </si>
-  <si>
-    <t>"18:08"</t>
-  </si>
-  <si>
-    <t>"18:14"</t>
-  </si>
-  <si>
-    <t>And I want to add to what I said before that, I'm on the more transparency, the better, I want to know who's paying our politicians for for running. I just, I want to know who they are, and this much about them, and what they might be wanting from them as I can. And I think that'll help more with accountability to the politician.</t>
-  </si>
-  <si>
-    <t>"18:44"</t>
-  </si>
-  <si>
-    <t>Like it's a green in the bike to transparency and disclosure of contributors. The only proposal regarding that kind of take issue with is substantially, raising the minimum level of contribution for individuals that will require disclosure, I think keeping it at 200 would be best because I didn't really need a lot more transparency for, you know, where politicians are getting their funding from.</t>
-  </si>
-  <si>
-    <t>"19:59"</t>
-  </si>
-  <si>
-    <t>I think everybody here can probably guessed by now that I'm for each state, independent nonpartisan, redistricting commission's, rather than a national law to do that. I yeah, I just</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nationalize programs to do that, but I do think they are necessary. I think gerrymandering has become a very big issue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> which,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I like, you know, which Elbridge Gerry probably never, could have. Could have guessed what happened?</t>
-  </si>
-  <si>
-    <t>"20:34"</t>
-  </si>
-  <si>
-    <t>Yeah, this is probably the biggest issue that affects this country on a daily basis because all of these districts are drawn in a way to benefit one political party or the other. And those parties get the power that they have on the local levels to change everything in our actual daily lives. So, this is</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Probably the biggest issue that but definitely the biggest issue we've talked about in this seminar but a huge, huge huge issue.</t>
-  </si>
-  <si>
-    <t>"21:10"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree that each state should be independent and do that on their own redistrict. I'm in a non-partisan way, but in the event that it doesn't work out like that. I would probably support a national law. That requires them to do it, not to get fully involved, but to just make sure that that is happening on some level. I think that's worth it because that's Nate said, there's a lot of issues in our country specifically stemming from gerrymandering and that</t>
-  </si>
-  <si>
-    <t>"21:40"</t>
-  </si>
-  <si>
-    <t>What are we recently? Traveled to am editor, Ohio, anybody on this group, from Ohio, Garfield's house. They talk about gerrymandering way back then. So trainman during certainly isn't A New Concept and I think the rural and cities when we start talking about rurals and cities, I think they talked earlier yesterday about that too and how once more liberal and ones more conservative. And so I would be curious, how gerrymandering how do you get around some of that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Some situations. I mean it is a problem. It shouldn't happen but just the way of the population Trends move how do you do that? Maybe that's a question for our big group.</t>
-  </si>
-  <si>
-    <t>"22:23"</t>
-  </si>
-  <si>
-    <t>Yeah, gerrymandering has been around since a guy named Elbridge Gerry, who actually signed the Constitution or was at the Constitutional Convention, was governor of Massachusetts and redistricting everything in Massachusetts. So his party would win the next five or six elections and that's where it comes from. And, you know, right from that point, it was supposed to be from the beginning about popular sovereignty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And that made it more about Party politics which was supposed to be avoided at the beginning to. So they right now, it's not as much about popular sovereignty. Gerrymandering makes it more about party rule.</t>
-  </si>
-  <si>
-    <t>"23:06"</t>
-  </si>
-  <si>
-    <t>I just to chime in from what Pat was saying. I'm, I'm not from Ohio, but I live, right? Outside Cleveland and gerrymandering is a very big issue here in Ohio, that I believe are our state. Legislature is working with right now and has</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drawn, redistricting maps that have run against the State Constitution and the state supreme court. So, there's there's a lot of issues in pretty much. There's definitely a handful of states that are going through this right now and it's a very important issue.</t>
-  </si>
-  <si>
-    <t>"23:45"</t>
-  </si>
-  <si>
-    <t>Well, I'm glad to hear so many of you have so much positive reviews on gerrymandering because I always viewed it as very - I've seen it being used. So that one party could get more votes from a group of people than they normally would have. I would think it best done every 10 years. Once the census is completed maybe then they'll see increase in may be necessary then but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I've always seen it being used very negatively.</t>
-  </si>
-  <si>
-    <t>"24:19"</t>
-  </si>
-  <si>
-    <t>"24:23"</t>
-  </si>
-  <si>
-    <t>Yes, I think maybe the audio dropped at all except adopted with her each date.</t>
-  </si>
-  <si>
-    <t>"25:37"</t>
-  </si>
-  <si>
-    <t>Yes, I don't believe it be making a phone in a Civic obligation. We have a right to either to vote or not the boat.</t>
-  </si>
-  <si>
-    <t>"25:47"</t>
-  </si>
-  <si>
-    <t>I agree with Mike on that one. Also there's no better way to piss someone off and to tell them that they have to do something. And you know, that's going to backfire in a lot of ways.</t>
-  </si>
-  <si>
-    <t>"26:01"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with Mike and made on that and I bet if we held a national referendum on whether or not we should be mandated to vote, it would be the biggest election ever. And it would be a resounding though. So I don't think on that, but I do hope we do. Do we can do something. And maybe even craft the question to find out from the experts later, on what we can do out there to make third parties and independent candidates easier to appear on the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Edit. So we have more choices when it comes to both local elections as well as national elections, more people out there.</t>
-  </si>
-  <si>
-    <t>"26:40"</t>
-  </si>
-  <si>
-    <t>You know, that would be a great question to pose and the primary question. And I think all proposals like that, with the exception of that specific obligation for making loading, this is an authorization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah, I don't really have much.</t>
-  </si>
-  <si>
-    <t>"26:58"</t>
-  </si>
-  <si>
-    <t>All right, I need that like, your, if you tell people to vote that they'll say, know, whether they want to or not certain personality types and yeah, please make it easier for third parties or any other party. Other than just the to, to vote and making a federal election day. Hey, I'm all for another day off of work with pay. But I'm not sure how practical that is. I think are my every place I've worked. They always give you a couple hours so you can take off.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To go vote, but maybe that would be mandatory instead of making it a full day off.</t>
-  </si>
-  <si>
-    <t>"27:35"</t>
-  </si>
-  <si>
-    <t>I think.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Another third party. Can you go to break the cycle of the two parties? You know control right now? Compulsory voting. I don't think so. Collection is a holiday and you know with online we do online voting one day.</t>
-  </si>
-  <si>
-    <t>"28:04"</t>
-  </si>
-  <si>
-    <t>I'm with everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Excuse me. Sorry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On making it easier for third parties, and independent candidates for the sixteen-year-old. If we can't even teach them about Civics and anything else to go with the government, how do we expect them to vote with an honest and unbiased opinion on that? So I'm definitely not for that.</t>
-  </si>
-  <si>
-    <t>"28:35"</t>
-  </si>
-  <si>
-    <t>I think I would agree with all of these except for making it a Civic obligation for very obvious reasons, the federal election holiday. I some people it would help for others. It would just be an extra day off like I said, previously, but it should definitely be easier for independent candidates to appear on the ballot. That's something I'm all for. Like I've, I tried to vote independent in previous elections as well.</t>
-  </si>
-  <si>
-    <t>But I personally think they should allow 6 year olds to register and vote in Local School Board elections. It's not like they're doing a very large change in their Community by doing that and you're teaching them young, getting them into it and they're learning the process.</t>
-  </si>
-  <si>
-    <t>"29:20"</t>
-  </si>
-  <si>
-    <t>Normally, I'm not one for national holidays. In fact, I think we may have more than we need in the couple of ways, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If Ever, I think there was a day, that should be a national holiday. It's a national election day. We only have one every four years, everything else is local and that's really up to the state. So I think it would be a big benefit to actually make that a national holiday. I know a lot of people would just use it to take a day off, but some might also use it to meet their civic responsibility.</t>
-  </si>
-  <si>
-    <t>"30:03"</t>
-  </si>
-  <si>
-    <t>I'd like to give sixteen-year-olds the opportunity to register to vote in their Local School Board elections and stuff like that. I think that's a great way to teach them, you know, the importance of voting for. You know what you believe needs to happen in your local area and you know, everything starts, like I said before at the local level and I think that's a great idea.</t>
-  </si>
-  <si>
-    <t>"30:32"</t>
-  </si>
-  <si>
-    <t>The first off, I don't agree for 16 year, olds to be able to vote because frankly they're not mature enough and most of them stay on the phone. So my own they don't even know what's going on, much less able to vote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I don't worry that you should have a national holiday for voting because a lot of people didn't make any difference for me to go vote or not as all of, you know, there's a lot of people out there that don't ever pay attention to anything that's going on in politics. Because I've had people tell me that I just spoke for whoever. I I know. I don't vote.</t>
-  </si>
-  <si>
-    <t>"31:17"</t>
-  </si>
-  <si>
-    <t>Yes, I would like to see it. Make it easier for their parties and independent chemist appear on the ballot.</t>
-  </si>
-  <si>
-    <t>"34:37"</t>
-  </si>
-  <si>
-    <t>I just wanted to say, I think there's a little bit of confusion about the 16 year, olds voting. Like they're not vote that they wouldn't be voting and like actual politics. Like States Governor's, Senators politic presidents, their voting in like a school board election, like your office workers stuff like that or people that handle very miniscule. Tasks, it's like a local thing. It's not</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Like the big.</t>
-  </si>
-  <si>
-    <t>"35:04"</t>
-  </si>
-  <si>
-    <t>I completely understand that as I vote in my local elections all the time but that still does make a difference for the school. And if I want the best people for the job, I want to make sure the people voting for those are well, informed</t>
-  </si>
-  <si>
-    <t>"35:22"</t>
-  </si>
-  <si>
-    <t>I agree with her because 16 year old doesn't pay attention to what the school board does. Their parents do so unless they're really interested in the school board, I don't think they should be allowed to vote.</t>
-  </si>
-  <si>
-    <t>"35:43"</t>
-  </si>
-  <si>
-    <t>Are you again for I think 15 year olds are planning to turn it cuz they're being affected by their school policies directly. So, you know, they kind of know what's going on other than the parent. I think, you know, if they can have a say in what's going on in the school, can create more Civic engagement in the future for them. So I think it's a good opportunity.</t>
-  </si>
-  <si>
-    <t>"36:39"</t>
-  </si>
-  <si>
-    <t>I think that's a pretty straightforward and very important question. I don't think anything needs to be changed.</t>
-  </si>
-  <si>
-    <t>"36:54"</t>
-  </si>
-  <si>
-    <t>Looks like a very good question.</t>
-  </si>
-  <si>
-    <t>"37:03"</t>
-  </si>
-  <si>
-    <t>I don't think any of it needs to be changed either.</t>
-  </si>
-  <si>
-    <t>"37:24"</t>
-  </si>
-  <si>
-    <t>I think that's a that's straight and to the point and a very important question. So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I hope the answer it and I'd like to, I'd like to know,</t>
-  </si>
-  <si>
-    <t>"37:53"</t>
-  </si>
-  <si>
-    <t>"38:20"</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -532,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -641,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1723,1037 +1302,1274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS87"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48409</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"9:53"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>For me, I'm all for closing loopholes that sounds like a great idea to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"10:00"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I'm for closing loopholes to, I honestly don't. Yeah, I honestly don't think that individual limits for their contributions right now or an issue. I know I make.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"10:00"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> About what average American does and I wouldn't be able to hit those limits as they are right now. So raising them doesn't really make any sense. I think it's a super Pacs that need to get a look taken it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"10:28"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"10:28"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Oh yeah, I'm all for closing loopholes but I think I'm the other issue. I'm for anything that increases the potential for more individual candidates to be in and decreases the contributions from corporate or or organized type of</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"10:28"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Foundations and corporations and also from National political parties. Even into the individuals because they can then hijacked that process. I think we need more candidates basically in there possibly more parties, but not more money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"11:27"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I'm all for closing. The loop comes in it. We have no business reform in our politics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"11:41"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>I agree and closing the loopholes we should have government officials, voted on not purchased.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48477</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"12:01"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I agree with a closing loopholes and then you know, in regards to financing I have a I'm not too sure. I trust the government dispensing that money but then again even though they're Greg said regulations or whatever. Come up to people always have a back door way. It's just like the tax code you can you have all going to end rounds and if ands or buts that taken lawyer out of the situation. So I'm not sure about the, I'd like to know more about</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48477</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"12:01"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Financing. And if we need to raise those limits,</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"12:41"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Oh, I agree about fixing that loopholes but I don't agree with the racing. The money that you can contribute a lot of politicians, just get in it for the money and not to help American people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"12:41"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"12:41"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48409</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:21"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>All I can say, is that there are better ways to spend public funds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:28"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I don't want to use public funds for elections, either, agree with that elections. I mean, what are we doing? If we do that right in my opinion, you're just</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"15:28"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Handing out the money and it's going to just going to come down to the person that uses the best for marketing after they get it. So and see what the difference is you know, you're going to get so much money that already shows that you have so much support and then it just comes down to. If you can give more you're going to lose more, it becomes a different thing other than voting for someone who can do something for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"16:10"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I would agree that public funds. It seems a little incestual where we would the government would pay money to become part of the government. Just somehow seems ethically wrong. I want to point out. I used to work for Mutual company. Mutual fund company. We had pay-to-play rules. So, we weren't allowed even allowed to give to any government election, unless it was approved by your employer. So that's rule of the Securities, I believe finra. So, I don't know if there's more rules, like,</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"16:10"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> like that out there or if other people have to abide by that, or if that's just an industry rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48308</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"16:49"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>I just wanted to point out that we do already have public funds that financed elections, so this is not like something new, this would be increasing that, which I'm not sure, you know, if we're for or against but we already do this. I just wanted to share that with everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"17:09"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I don't know if we should be using public funds for that if it they already do. I mean, it's something that is already in place, but it almost feels like they're trying to make elections more of like, a money thing. Like, these people already when they get into those positions, they have incredible salaries as is. So, it just seems like increasing any type of money that they get is just increasing the probability of getting someone that's just in it for the money and not in it for the</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"17:09"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> American people like the position is supposed to be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48477</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"17:43"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I don't really regardless of what we're spending right now on funding public funds for election. So I would be a close to that or any kind of democracy, vouchers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"17:59"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I agree. I don't think the public funds should be used to find financially election.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48365</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"18:08"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"18:14"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>And I want to add to what I said before that, I'm on the more transparency, the better, I want to know who's paying our politicians for for running. I just, I want to know who they are, and this much about them, and what they might be wanting from them as I can. And I think that'll help more with accountability to the politician.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48437</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"18:44"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Like it's a green in the bike to transparency and disclosure of contributors. The only proposal regarding that kind of take issue with is substantially, raising the minimum level of contribution for individuals that will require disclosure, I think keeping it at 200 would be best because I didn't really need a lot more transparency for, you know, where politicians are getting their funding from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"19:59"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>I think everybody here can probably guessed by now that I'm for each state, independent nonpartisan, redistricting commission's, rather than a national law to do that. I yeah, I just</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"19:59"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nationalize programs to do that, but I do think they are necessary. I think gerrymandering has become a very big issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"19:59"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> which,</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"19:59"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I like, you know, which Elbridge Gerry probably never, could have. Could have guessed what happened?</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48308</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"20:34"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, this is probably the biggest issue that affects this country on a daily basis because all of these districts are drawn in a way to benefit one political party or the other. And those parties get the power that they have on the local levels to change everything in our actual daily lives. So, this is</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48308</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"20:34"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Probably the biggest issue that but definitely the biggest issue we've talked about in this seminar but a huge, huge huge issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"21:10"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree that each state should be independent and do that on their own redistrict. I'm in a non-partisan way, but in the event that it doesn't work out like that. I would probably support a national law. That requires them to do it, not to get fully involved, but to just make sure that that is happening on some level. I think that's worth it because that's Nate said, there's a lot of issues in our country specifically stemming from gerrymandering and that</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"21:10"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"21:40"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"21:40"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>What are we recently? Traveled to am editor, Ohio, anybody on this group, from Ohio, Garfield's house. They talk about gerrymandering way back then. So trainman during certainly isn't A New Concept and I think the rural and cities when we start talking about rurals and cities, I think they talked earlier yesterday about that too and how once more liberal and ones more conservative. And so I would be curious, how gerrymandering how do you get around some of that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"21:40"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Some situations. I mean it is a problem. It shouldn't happen but just the way of the population Trends move how do you do that? Maybe that's a question for our big group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"22:23"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, gerrymandering has been around since a guy named Elbridge Gerry, who actually signed the Constitution or was at the Constitutional Convention, was governor of Massachusetts and redistricting everything in Massachusetts. So his party would win the next five or six elections and that's where it comes from. And, you know, right from that point, it was supposed to be from the beginning about popular sovereignty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"22:23"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And that made it more about Party politics which was supposed to be avoided at the beginning to. So they right now, it's not as much about popular sovereignty. Gerrymandering makes it more about party rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48308</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"23:06"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>I just to chime in from what Pat was saying. I'm, I'm not from Ohio, but I live, right? Outside Cleveland and gerrymandering is a very big issue here in Ohio, that I believe are our state. Legislature is working with right now and has</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48308</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"23:06"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Drawn, redistricting maps that have run against the State Constitution and the state supreme court. So, there's there's a lot of issues in pretty much. There's definitely a handful of states that are going through this right now and it's a very important issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48500</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"23:45"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Well, I'm glad to hear so many of you have so much positive reviews on gerrymandering because I always viewed it as very - I've seen it being used. So that one party could get more votes from a group of people than they normally would have. I would think it best done every 10 years. Once the census is completed maybe then they'll see increase in may be necessary then but</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48500</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"23:45"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I've always seen it being used very negatively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48365</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"24:19"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="n"/>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"24:23"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="n"/>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"24:23"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I think maybe the audio dropped at all except adopted with her each date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"25:37"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I don't believe it be making a phone in a Civic obligation. We have a right to either to vote or not the boat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48308</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"25:47"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Mike on that one. Also there's no better way to piss someone off and to tell them that they have to do something. And you know, that's going to backfire in a lot of ways.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"26:01"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with Mike and made on that and I bet if we held a national referendum on whether or not we should be mandated to vote, it would be the biggest election ever. And it would be a resounding though. So I don't think on that, but I do hope we do. Do we can do something. And maybe even craft the question to find out from the experts later, on what we can do out there to make third parties and independent candidates easier to appear on the</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"26:01"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Edit. So we have more choices when it comes to both local elections as well as national elections, more people out there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48437</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"26:40"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>You know, that would be a great question to pose and the primary question. And I think all proposals like that, with the exception of that specific obligation for making loading, this is an authorization</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>48437</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"26:40"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yeah, I don't really have much.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"26:58"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>All right, I need that like, your, if you tell people to vote that they'll say, know, whether they want to or not certain personality types and yeah, please make it easier for third parties or any other party. Other than just the to, to vote and making a federal election day. Hey, I'm all for another day off of work with pay. But I'm not sure how practical that is. I think are my every place I've worked. They always give you a couple hours so you can take off.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48417</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"26:58"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To go vote, but maybe that would be mandatory instead of making it a full day off.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48477</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"27:35"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>I think.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48477</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"27:35"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Another third party. Can you go to break the cycle of the two parties? You know control right now? Compulsory voting. I don't think so. Collection is a holiday and you know with online we do online voting one day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>9673</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"28:04"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>I'm with everyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>9673</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"28:04"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Excuse me. Sorry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>9673</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"28:04"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> On making it easier for third parties, and independent candidates for the sixteen-year-old. If we can't even teach them about Civics and anything else to go with the government, how do we expect them to vote with an honest and unbiased opinion on that? So I'm definitely not for that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"28:35"</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>I think I would agree with all of these except for making it a Civic obligation for very obvious reasons, the federal election holiday. I some people it would help for others. It would just be an extra day off like I said, previously, but it should definitely be easier for independent candidates to appear on the ballot. That's something I'm all for. Like I've, I tried to vote independent in previous elections as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"28:35"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>But I personally think they should allow 6 year olds to register and vote in Local School Board elections. It's not like they're doing a very large change in their Community by doing that and you're teaching them young, getting them into it and they're learning the process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"29:20"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Normally, I'm not one for national holidays. In fact, I think we may have more than we need in the couple of ways, but</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="10">
+      <c r="A64" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"29:20"</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If Ever, I think there was a day, that should be a national holiday. It's a national election day. We only have one every four years, everything else is local and that's really up to the state. So I think it would be a big benefit to actually make that a national holiday. I know a lot of people would just use it to take a day off, but some might also use it to meet their civic responsibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="10">
+      <c r="A65" s="3" t="n">
         <v>48308</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"30:03"</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>I'd like to give sixteen-year-olds the opportunity to register to vote in their Local School Board elections and stuff like that. I think that's a great way to teach them, you know, the importance of voting for. You know what you believe needs to happen in your local area and you know, everything starts, like I said before at the local level and I think that's a great idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="10">
+      <c r="A66" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"30:32"</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="n"/>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="10">
+      <c r="A67" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"30:32"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>The first off, I don't agree for 16 year, olds to be able to vote because frankly they're not mature enough and most of them stay on the phone. So my own they don't even know what's going on, much less able to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="10">
+      <c r="A68" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"30:32"</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I don't worry that you should have a national holiday for voting because a lot of people didn't make any difference for me to go vote or not as all of, you know, there's a lot of people out there that don't ever pay attention to anything that's going on in politics. Because I've had people tell me that I just spoke for whoever. I I know. I don't vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="10">
+      <c r="A69" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"31:17"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="n"/>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="10">
+      <c r="A70" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>"31:17"</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I would like to see it. Make it easier for their parties and independent chemist appear on the ballot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="10">
+      <c r="A71" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>"34:37"</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>I just wanted to say, I think there's a little bit of confusion about the 16 year, olds voting. Like they're not vote that they wouldn't be voting and like actual politics. Like States Governor's, Senators politic presidents, their voting in like a school board election, like your office workers stuff like that or people that handle very miniscule. Tasks, it's like a local thing. It's not</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="10">
+      <c r="A72" s="3" t="n">
         <v>48269</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>"34:37"</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Like the big.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="10">
+      <c r="A73" s="3" t="n">
         <v>9673</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>"35:04"</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="n"/>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="10">
+      <c r="A74" s="3" t="n">
         <v>9673</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>"35:04"</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>I completely understand that as I vote in my local elections all the time but that still does make a difference for the school. And if I want the best people for the job, I want to make sure the people voting for those are well, informed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="10">
+      <c r="A75" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>"35:22"</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>I agree with her because 16 year old doesn't pay attention to what the school board does. Their parents do so unless they're really interested in the school board, I don't think they should be allowed to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="10">
+      <c r="A76" s="3" t="n">
         <v>48437</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>"35:43"</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Are you again for I think 15 year olds are planning to turn it cuz they're being affected by their school policies directly. So, you know, they kind of know what's going on other than the parent. I think, you know, if they can have a say in what's going on in the school, can create more Civic engagement in the future for them. So I think it's a good opportunity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="10">
+      <c r="A77" s="3" t="n">
         <v>9673</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>"36:39"</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="n"/>
+    </row>
+    <row r="78" ht="20" customHeight="1" s="10">
+      <c r="A78" s="3" t="n">
         <v>9673</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>"36:39"</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>I think that's a pretty straightforward and very important question. I don't think anything needs to be changed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1" s="10">
+      <c r="A79" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>"36:54"</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="n"/>
+    </row>
+    <row r="80" ht="20" customHeight="1" s="10">
+      <c r="A80" s="3" t="n">
         <v>9833</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>"36:54"</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>Looks like a very good question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1" s="10">
+      <c r="A81" s="3" t="n">
         <v>48578</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>"37:03"</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>I don't think any of it needs to be changed either.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1" s="10">
+      <c r="A82" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>"37:24"</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>I think that's a that's straight and to the point and a very important question. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="20" customHeight="1" s="10">
+      <c r="A83" s="3" t="n">
         <v>48301</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>"37:24"</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I hope the answer it and I'd like to, I'd like to know,</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1" s="10">
+      <c r="A84" s="3" t="n">
         <v>48365</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>"37:53"</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="n"/>
+    </row>
+    <row r="85" ht="20" customHeight="1" s="10">
+      <c r="A85" s="3" t="n">
         <v>48365</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>"38:20"</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="n"/>
+    </row>
+    <row r="86" ht="20" customHeight="1" s="10">
+      <c r="A86" s="3" t="n">
         <v>48365</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>"38:20"</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="n"/>
+    </row>
+    <row r="87" ht="20" customHeight="1" s="10">
+      <c r="A87" s="3" t="n">
         <v>48365</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="5"/>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>"38:20"</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A7E0FB-538F-3A45-8712-06E1E2758C86}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>